--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_89.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_89.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,247 +488,277 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06318560772268539</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E'], ['E', 'B', 'E']]</t>
-        </is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1457800511508952</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D'], ['D/5', 'A', 'D/5']]</t>
+          <t>[['A', 'D', 'A', 'D'], ['A', 'D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(7.284457, 20.438561), (4.103323, 13.890534)]</t>
+          <t>[['E', 'A', 'E', 'A'], ['E', 'A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(19.708503, 25.501882), (31.898979, 34.035215)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:03.599751', '0:00:07.761836'), ('0:00:20.567641', '0:00:27.754217')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:14.450219', '0:00:23.088042'), ('0:00:28.208042', '0:00:33.386092')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_8</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_87</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_124</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1666666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(14.44, 47.4)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(10.7, 35.52)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(16.58, 22.66)]</t>
+          <t>[['C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:08.340000', '0:01:20')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:02.020000', '0:00:15.900000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4869565217391305</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1714285714285714</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(14.450219, 23.088042)]</t>
+          <t>[['E:7', 'A:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(154.76, 160.98)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:24.420000', '0:00:32.620000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:46.060000', '0:00:53.660000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2701149425287356</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
-        </is>
+          <t>isophonics_76</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_108</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08482142857142858</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>[['C', 'G', 'D/3']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(23.8, 54.3)]</t>
+          <t>[['D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(10.38, 25.18)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:09.336000', '0:00:13.342000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:08.667414', '0:00:17.282018')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1277173913043478</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_41</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0992063492063492</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['G', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(5.91585, 14.867142)]</t>
+          <t>[['F:maj/A', 'A#:maj/D', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(2.408196, 13.878853)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:56.279931', '0:01:00.633673')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:03:08.260000', '0:03:12.260000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3384615384615385</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -732,365 +767,381 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(10.619, 16.742)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(138.02, 142.34)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:55.680000', '0:01:02.280000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(57.48, 64.58)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(16.17907, 21.844739)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2196969696969697</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(8.18, 13.26)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(13.56, 16.28)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:21.340000', '0:00:24.960000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:05.440000', '0:01:09.180000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_111</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C', 'G:7', 'C', 'G:7', 'C']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(70.519024, 79.249727)]</t>
+          <t>[('0:04:01.220000', '0:04:15.460000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:18.660000', '0:00:21.840000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_39</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.08576533650982728</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'D']]</t>
-        </is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3513071895424837</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Db']]</t>
+          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.446618, 10.953139)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(131.61, 134.27)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:07.600000', '0:00:23.340000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1980676328502415</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E', 'E/7']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'A', 'A']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(7.935986, 13.148866)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(25.606371, 38.772086)]</t>
+          <t>[('0:01:52.240000', '0:01:57.700000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5428571428571429</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D', 'G/5']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(138.8, 145.8)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(20.432, 24.332)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1033434650455927</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'A#:maj/D', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(188.26, 192.26)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(63.292358, 70.397664)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2873563218390804</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_70</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(27.28, 57.9)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(49.28, 64.98)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:01.540000', '0:00:10.140000'), ('0:01:11.500000', '0:01:18.960000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_133</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(63.24, 64.62), (61.6, 63.84)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(39.18, 53.36), (111.92, 115.36)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
